--- a/resources/Keywords.xlsx
+++ b/resources/Keywords.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Keywords" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keywords!$A$1:$E$50</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Topic</t>
   </si>
@@ -59,18 +62,9 @@
     <t>Phone Banking</t>
   </si>
   <si>
-    <t>call center, hotline, contact center, contact, phone, tollfree, phone banking</t>
-  </si>
-  <si>
     <t>Internet Banking</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>business banking, rm, account manager, relationship manager</t>
-  </si>
-  <si>
     <t>Investments</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>Rates</t>
   </si>
   <si>
-    <t>rate, finance charge, rates, interest, interest rate</t>
-  </si>
-  <si>
     <t>Dispute</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>purchases, installment</t>
   </si>
   <si>
-    <t>Application</t>
-  </si>
-  <si>
     <t>Delivery</t>
   </si>
   <si>
@@ -224,15 +212,9 @@
     <t>inquiry, response to inquiry, email, feedback, response time, response, inquiries, queries</t>
   </si>
   <si>
-    <t>annual fee, membership fee, waive fee, charges, transaction fees</t>
-  </si>
-  <si>
     <t>security, card security, security pin</t>
   </si>
   <si>
-    <t>card application, application, id requirement, requirement, requirements, submission of requirements, approval, documents</t>
-  </si>
-  <si>
     <t>delivery, courier, deliver, delivered</t>
   </si>
   <si>
@@ -287,12 +269,6 @@
     <t>international access, withdrawal limit, e-commerce access, block card</t>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>notification, notify, advise, alert, text, inform, updates, notifications, status</t>
-  </si>
-  <si>
     <t>Business Banking</t>
   </si>
   <si>
@@ -309,6 +285,57 @@
   </si>
   <si>
     <t>training personnel, branch personnel, training, personnel, employee, employees, staff, staffs, officer, manager, rm, relationship manager, name</t>
+  </si>
+  <si>
+    <t>Knowledge/Competency</t>
+  </si>
+  <si>
+    <t>Status Updates</t>
+  </si>
+  <si>
+    <t>notification, notify, advise, alert, text, inform, updates, notifications, status, update</t>
+  </si>
+  <si>
+    <t>annual fee, membership fee, waive fee, charges, transaction fees, finance charge, charge</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>enroll, enrol, enrolment, enrollment, enrolling, enroling</t>
+  </si>
+  <si>
+    <t>Abroad</t>
+  </si>
+  <si>
+    <t>abroad, foreigners, foreign</t>
+  </si>
+  <si>
+    <t>Application/Account Opening</t>
+  </si>
+  <si>
+    <t>card application, application, id requirement, requirement, requirements, submission of requirements, approval, documents, apply, account opening, open account</t>
+  </si>
+  <si>
+    <t>Lane/Queue</t>
+  </si>
+  <si>
+    <t>queue, line, lane</t>
+  </si>
+  <si>
+    <t>call center, hotline, contact center, contact, phone, tollfree, phone banking, agent, agents</t>
+  </si>
+  <si>
+    <t>BM/RM / Sales Officer</t>
+  </si>
+  <si>
+    <t>business banking, rm, account manager, relationship manager, sales officer, officer, bm, ra, branch manager, branch officer</t>
+  </si>
+  <si>
+    <t>knowledge, knowleadgeable, compentent, competence, incompetent</t>
+  </si>
+  <si>
+    <t>rate, rates, interest, interest rate, deposit rate, investment rate</t>
   </si>
 </sst>
 </file>
@@ -332,7 +359,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,8 +395,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -652,15 +678,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -679,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -752,10 +778,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -769,10 +795,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -786,13 +812,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -803,10 +829,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -820,10 +846,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -837,10 +863,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -854,10 +880,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -871,10 +897,10 @@
     </row>
     <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -888,10 +914,10 @@
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -905,10 +931,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -922,10 +948,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -939,10 +965,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -956,10 +982,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -973,10 +999,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -990,10 +1016,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1007,10 +1033,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1024,10 +1050,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1041,10 +1067,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1058,10 +1084,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1075,10 +1101,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1092,10 +1118,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1109,10 +1135,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1126,10 +1152,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1143,10 +1169,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1160,10 +1186,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1177,10 +1203,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1194,10 +1220,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1211,10 +1237,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1228,10 +1254,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1245,209 +1271,270 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B44" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>